--- a/SubRES_TMPL/SubRES_NOWE_TECHNOLOGIE_Trans.xlsx
+++ b/SubRES_TMPL/SubRES_NOWE_TECHNOLOGIE_Trans.xlsx
@@ -1222,5 +1222,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0B93B07-9DC0-4051-8B64-87EE123170A2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EC74754-C309-4C07-8574-DBBFC86C57B4}"/>
 </file>